--- a/public/template/tmp_loan.xlsx
+++ b/public/template/tmp_loan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\e-letter-admin\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2606C8-C202-4844-998F-4C1885F8F9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFC0527-82EF-4C84-B2D4-4540BC0865A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60D4163B-44FC-4FFC-A588-BC696FF74730}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60D4163B-44FC-4FFC-A588-BC696FF74730}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NO</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>PEMBAYARAN PERBULAN</t>
+  </si>
+  <si>
+    <t>NOMINAL TERBAYARKAN</t>
+  </si>
+  <si>
+    <t>NOMINAL SISA</t>
   </si>
 </sst>
 </file>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E545011F-029F-4732-B2E8-18660B03888A}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G42"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,10 +467,11 @@
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="46" customWidth="1"/>
+    <col min="7" max="8" width="46" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +493,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -495,8 +508,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -504,8 +519,10 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -513,8 +530,10 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -522,8 +541,10 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -531,8 +552,10 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -540,8 +563,10 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -549,8 +574,10 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -558,8 +585,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -567,8 +596,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -576,8 +607,10 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -585,8 +618,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -594,8 +629,10 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -603,8 +640,10 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -612,8 +651,10 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -621,8 +662,10 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -630,8 +673,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -639,8 +684,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -648,8 +695,10 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -657,8 +706,10 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -666,8 +717,10 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -675,8 +728,10 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -684,8 +739,10 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -693,8 +750,10 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -702,8 +761,10 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -711,8 +772,10 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -720,8 +783,10 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -729,8 +794,10 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -738,8 +805,10 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -747,8 +816,10 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -756,8 +827,10 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -765,8 +838,10 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -774,8 +849,10 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -783,8 +860,10 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -792,8 +871,10 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -801,8 +882,10 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -810,8 +893,10 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -819,8 +904,10 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -828,8 +915,10 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -837,8 +926,10 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -846,8 +937,10 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -855,6 +948,8 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
